--- a/frontend/src/assets/data/MemberSportsExample.xlsx
+++ b/frontend/src/assets/data/MemberSportsExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projeto\surf-management-app\frontend\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA752BF-88D1-4D72-882D-F0321E09ADE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9125FAB0-9B15-48CC-BF92-FE2C51578BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25DFE816-5A54-4AFA-AB3A-3888E7B117BA}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>email</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>sport_id</t>
   </si>
@@ -52,15 +49,6 @@
     <t>anos federado</t>
   </si>
   <si>
-    <t>afonsoribeiro@gmail.com</t>
-  </si>
-  <si>
-    <t>joselopes@gmail.com</t>
-  </si>
-  <si>
-    <t>[apprentice,coach]</t>
-  </si>
-  <si>
     <t>numero de federado</t>
   </si>
   <si>
@@ -73,9 +61,6 @@
     <t>Federacao Portuguesa de Surf</t>
   </si>
   <si>
-    <t>[2020,2021]</t>
-  </si>
-  <si>
     <t>[2021]</t>
   </si>
   <si>
@@ -85,14 +70,23 @@
     <t>Federacao Portuguesa de Bodysurf</t>
   </si>
   <si>
-    <t>[2019,2020,2021]</t>
+    <t>[apprentice|coach]</t>
+  </si>
+  <si>
+    <t>[2020|2021]</t>
+  </si>
+  <si>
+    <t>[2019|2020|2021]</t>
+  </si>
+  <si>
+    <t>id do membro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,14 +97,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,7 +115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -152,37 +138,26 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,9 +472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD42315-0D63-4046-9FCA-9CA2DC93BCF7}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -508,64 +481,64 @@
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4890</v>
+      </c>
+      <c r="E2" s="2">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
-        <v>4890</v>
-      </c>
-      <c r="E2" s="5">
-        <v>54</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
+      <c r="A3" s="3">
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
         <v>4258</v>
@@ -574,21 +547,21 @@
         <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
+      <c r="A4" s="3">
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>4721</v>
@@ -597,27 +570,22 @@
         <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B0A1812A-ABF8-4ADA-A79A-1FE8366963C7}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{B55C1DDF-FE19-4DDC-8E34-ABD00112BC65}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{19E4B7E5-9FF5-46BE-872E-7CDF024869DC}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/frontend/src/assets/data/MemberSportsExample.xlsx
+++ b/frontend/src/assets/data/MemberSportsExample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projeto\surf-management-app\frontend\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9125FAB0-9B15-48CC-BF92-FE2C51578BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0322E634-E168-480D-A655-19A117706873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25DFE816-5A54-4AFA-AB3A-3888E7B117BA}"/>
   </bookViews>
@@ -37,24 +37,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
-    <t>sport_id</t>
-  </si>
-  <si>
-    <t>tipo</t>
-  </si>
-  <si>
     <t>Nome da federação</t>
   </si>
   <si>
-    <t>anos federado</t>
-  </si>
-  <si>
-    <t>numero de federado</t>
-  </si>
-  <si>
-    <t>id da federacao</t>
-  </si>
-  <si>
     <t>[apprentice]</t>
   </si>
   <si>
@@ -79,7 +64,22 @@
     <t>[2019|2020|2021]</t>
   </si>
   <si>
-    <t>id do membro</t>
+    <t>Anos federado</t>
+  </si>
+  <si>
+    <t>Id da federacao</t>
+  </si>
+  <si>
+    <t>Numero de federado</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Id do desporto</t>
+  </si>
+  <si>
+    <t>Id do membro</t>
   </si>
 </sst>
 </file>
@@ -472,11 +472,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD42315-0D63-4046-9FCA-9CA2DC93BCF7}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -489,22 +492,22 @@
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -515,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>4890</v>
@@ -524,10 +527,10 @@
         <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -538,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>4258</v>
@@ -547,10 +550,10 @@
         <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -561,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
         <v>4721</v>
@@ -570,10 +573,10 @@
         <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
